--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ442Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ442Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3921B956-53CD-4C7A-B082-CAF11504E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F55F43D-9023-4B9F-949F-DCB308193380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>OutJcicTxtDate</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -466,6 +462,11 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1036,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1056,10 +1057,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1084,10 +1085,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1140,7 +1141,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
@@ -1151,7 +1152,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
@@ -1188,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
@@ -1207,10 +1208,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
@@ -1221,12 +1222,12 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>17</v>
@@ -1239,7 +1240,7 @@
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1247,10 +1248,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>18</v>
@@ -1260,7 +1261,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1268,10 +1269,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>18</v>
@@ -1281,7 +1282,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1289,13 +1290,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
@@ -1308,13 +1309,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="15">
         <v>9</v>
@@ -1327,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="15">
         <v>9</v>
@@ -1346,13 +1347,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="15">
         <v>9</v>
@@ -1365,13 +1366,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="15">
         <v>9</v>
@@ -1384,13 +1385,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="15">
         <v>9</v>
@@ -1403,13 +1404,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="15">
         <v>9</v>
@@ -1422,13 +1423,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="15">
         <v>9</v>
@@ -1441,13 +1442,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="15">
         <v>9</v>
@@ -1460,13 +1461,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="15">
         <v>9</v>
@@ -1479,13 +1480,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="15">
         <v>9</v>
@@ -1498,13 +1499,13 @@
         <v>17</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="D27" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="15">
         <v>9</v>
@@ -1517,13 +1518,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="15">
         <v>9</v>
@@ -1536,13 +1537,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="15">
         <v>9</v>
@@ -1555,13 +1556,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="15">
         <v>9</v>
@@ -1574,13 +1575,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="15">
         <v>9</v>
@@ -1593,13 +1594,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="15">
         <v>9</v>
@@ -1612,13 +1613,13 @@
         <v>23</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="15">
         <v>9</v>
@@ -1631,13 +1632,13 @@
         <v>24</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="15">
         <v>9</v>
@@ -1650,13 +1651,13 @@
         <v>25</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="15">
         <v>9</v>
@@ -1669,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="15">
         <v>9</v>
@@ -1688,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>31</v>
@@ -1767,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>20</v>
@@ -2320,24 +2321,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
